--- a/biology/Botanique/Jardin_Louise-Weber-dite-La-Goulue/Jardin_Louise-Weber-dite-La-Goulue.xlsx
+++ b/biology/Botanique/Jardin_Louise-Weber-dite-La-Goulue/Jardin_Louise-Weber-dite-La-Goulue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Louise Weber dite La Goulue, autrefois dénommé « jardin Burq » ou « square de la rue Burq », est un espace vert situé sur la butte Montmartre, dans le 18e arrondissement de Paris (France).
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est créé en 1985.
-En 2018, un petit terrain de football est installé dans le parc, à la place d'un bloc de jeux pour enfants. Une centaine de riverains demandent la désinstallation du stade, et le footballeur professionnel Vikash Dhorasoo intervient également pour demander son maintien[1].
-Il porte depuis février 2021 le nom de la danseuse montmartroise Louise Weber par délibération du Conseil de Paris. Il était autrefois dénommé « jardin Burq » ou « square de la rue Burq »[2],[3].
+En 2018, un petit terrain de football est installé dans le parc, à la place d'un bloc de jeux pour enfants. Une centaine de riverains demandent la désinstallation du stade, et le footballeur professionnel Vikash Dhorasoo intervient également pour demander son maintien.
+Il porte depuis février 2021 le nom de la danseuse montmartroise Louise Weber par délibération du Conseil de Paris. Il était autrefois dénommé « jardin Burq » ou « square de la rue Burq »,.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin Louise Weber, accessible par le 14, rue Burq, dans le quartier de Montmartre, est desservi par la ligne de métro 12 à la station Abbesses, ainsi que par la ligne de bus 40, la seule à circuler sur la butte Montmartre, à l'arrêt Durantin-Burq.
-Aménagé en terrasses agrémentées de jardinières odorantes sur presque 2 000 m2, il est adapté aux enfants qui y disposent de jeux divers et d'un bac à sable[4].
+Aménagé en terrasses agrémentées de jardinières odorantes sur presque 2 000 m2, il est adapté aux enfants qui y disposent de jeux divers et d'un bac à sable.
 On peut y voir la façade arrière du Bateau-Lavoir, la célèbre cité d'artistes de Montmartre qui abrita notamment Picasso et Modigliani.
 </t>
         </is>
